--- a/results/I3_N5_M2_T45_C100_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1182.827489403844</v>
+        <v>2066.761917344469</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18901356216583</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.345864704189571</v>
+        <v>16.42556716767945</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.694340545865074</v>
+        <v>3.332632436278654</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>718.190000000003</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>439.1</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.82492372683955</v>
+        <v>17.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>40.92773953394845</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.56872016525512</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38.17507627316045</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.51205161108313</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,10 +1127,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1196,7 +1141,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>7</v>
@@ -1210,7 +1155,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>7</v>
@@ -1224,7 +1169,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
@@ -1238,7 +1183,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
@@ -1252,7 +1197,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -1261,6 +1206,62 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>111.055</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>116.775</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>114.675</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>115.335</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>117.75</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.01</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.785</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.805</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.995</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.985</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000007</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.63</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.495</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>116.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>115.335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>117.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.985</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000007</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000007</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.63</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.495</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.05500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>16.77500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.33500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.98500000000001</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.23000000000073</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.16500000000073</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>56.63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>61.495</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.965</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2095,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2106,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2117,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2150,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2161,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2172,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2183,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2194,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,7 +2291,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2301,7 +2302,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2312,7 +2313,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2323,7 +2324,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2334,7 +2335,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2345,7 +2346,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2356,7 +2357,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
@@ -2367,7 +2368,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
@@ -2378,7 +2379,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -2389,12 +2390,56 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
         <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
